--- a/Assignment 1/plot.xlsx
+++ b/Assignment 1/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25729FA-35C2-4A1D-B3F7-3BD91D00AD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0E551-AB20-4BC5-9343-D4C6B58A68B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9906BCE1-E73A-4975-97F9-CC6B1535AAC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>[4-4]</t>
   </si>
@@ -80,6 +80,12 @@
   <si>
     <t>[3-3-3-3]</t>
   </si>
+  <si>
+    <t>ชุดข้อมูล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           การทดลอง</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -131,11 +137,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -146,6 +272,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,10 +2295,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.81830661436131003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.80450463581490905</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81830661436131003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.52564003463812692</c:v>
@@ -2230,10 +2366,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.799613863877496</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.75983680969989498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.799613863877496</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.52623727811825005</c:v>
@@ -8825,10 +8961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2395692B-1CA5-404D-8047-D0710232717F}">
-  <dimension ref="B4:H124"/>
+  <dimension ref="B4:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="O122" sqref="O122"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="R120" sqref="R120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9446,17 +9582,17 @@
       </c>
       <c r="C75">
         <f>1-E75</f>
-        <v>0.80450463581490905</v>
+        <v>0.81830661436131003</v>
       </c>
       <c r="D75">
         <f>1-F75</f>
-        <v>0.75983680969989498</v>
+        <v>0.799613863877496</v>
       </c>
       <c r="E75" s="3">
-        <v>0.195495364185091</v>
+        <v>0.18169338563869</v>
       </c>
       <c r="F75" s="3">
-        <v>0.240163190300105</v>
+        <v>0.200386136122504</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -9465,17 +9601,17 @@
       </c>
       <c r="C76">
         <f t="shared" ref="C76:C78" si="6">1-E76</f>
-        <v>0.81830661436131003</v>
+        <v>0.80450463581490905</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D78" si="7">1-F76</f>
-        <v>0.799613863877496</v>
+        <v>0.75983680969989498</v>
       </c>
       <c r="E76" s="3">
-        <v>0.18169338563869</v>
+        <v>0.195495364185091</v>
       </c>
       <c r="F76" s="3">
-        <v>0.200386136122504</v>
+        <v>0.240163190300105</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -9516,6 +9652,12 @@
         <v>0.25003600676954602</v>
       </c>
     </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+    </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>6</v>
@@ -9810,7 +9952,7 @@
         <v>0.19232996682616599</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>0.5</v>
       </c>
@@ -9829,7 +9971,7 @@
         <v>0.22587446924346499</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>0.6</v>
       </c>
@@ -9848,7 +9990,7 @@
         <v>0.19389558598433601</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>0.7</v>
       </c>
@@ -9867,7 +10009,7 @@
         <v>0.19439498177737999</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0.8</v>
       </c>
@@ -9886,7 +10028,7 @@
         <v>0.19482328954063699</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0.9</v>
       </c>
@@ -9905,7 +10047,7 @@
         <v>0.285919533472689</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>1</v>
       </c>
@@ -9924,7 +10066,13 @@
         <v>0.43939847207516902</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <f>D110-D112/100</f>
+        <v>0.80928926364050768</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>6</v>
       </c>
@@ -9938,16 +10086,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122">
-        <f>1-E122</f>
+        <f t="shared" ref="C122:D124" si="12">1-E122</f>
         <v>0.84949767207375904</v>
       </c>
       <c r="D122">
-        <f>1-F122</f>
+        <f t="shared" si="12"/>
         <v>0.81265384844397204</v>
       </c>
       <c r="E122" s="5">
@@ -9957,16 +10105,16 @@
         <v>0.18734615155602799</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>9</v>
       </c>
       <c r="C123">
-        <f>1-E123</f>
+        <f t="shared" si="12"/>
         <v>0.84680673661892403</v>
       </c>
       <c r="D123">
-        <f>1-F123</f>
+        <f t="shared" si="12"/>
         <v>0.82288559961431207</v>
       </c>
       <c r="E123" s="5">
@@ -9976,16 +10124,16 @@
         <v>0.17711440038568799</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>10</v>
       </c>
       <c r="C124">
-        <f>1-E124</f>
+        <f t="shared" si="12"/>
         <v>0.84949178487592703</v>
       </c>
       <c r="D124">
-        <f>1-F124</f>
+        <f t="shared" si="12"/>
         <v>0.81265154803599904</v>
       </c>
       <c r="E124" s="5">
@@ -9994,6 +10142,42 @@
       <c r="F124" s="5">
         <v>0.18734845196400099</v>
       </c>
+    </row>
+    <row r="141" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H141" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="13"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="15"/>
+    </row>
+    <row r="142" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H142" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="6"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="9"/>
+    </row>
+    <row r="143" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H143" s="10"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+    </row>
+    <row r="144" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H144" s="10"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
